--- a/5.ExperimentalResult/speed.xlsx
+++ b/5.ExperimentalResult/speed.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Image</t>
   </si>
@@ -497,6 +498,414 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0155</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.62 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0156</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.79 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0173</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.87 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0124</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.79 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0164</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+ 0.0161</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.77 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
@@ -508,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,6 +959,17 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -635,7 +1055,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,8 +1063,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -697,25 +1153,642 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445972.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445972.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2125817176"/>
+        <c:axId val="2125820008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2125817176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125820008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125820008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125817176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>279400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>118252</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>774700</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>736600</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,15 +2113,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1086,36 +2160,36 @@
       <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="18"/>
+      <c r="AB1" s="19"/>
     </row>
     <row r="2" spans="1:28" ht="16" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -1124,30 +2198,25 @@
       <c r="B2" s="9">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C2" s="9">
-        <f>B2/Q3</f>
-        <v>7.5134256294033609E-8</v>
-      </c>
       <c r="D2" s="8">
         <v>8.6E-3</v>
       </c>
-      <c r="E2" s="8"/>
       <c r="F2" s="8">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8">
-        <v>3.1300000000000001E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8">
-        <v>3.1300000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="O2" s="19"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="O2" s="20"/>
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1188,35 +2257,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16" thickBot="1">
+    <row r="3" spans="1:28">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C10" si="0">B3/Q4</f>
-        <v>8.8540846844010703E-8</v>
-      </c>
       <c r="D3" s="10">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E3" s="10"/>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10">
-        <v>2.3400000000000001E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10">
-        <v>2.3599999999999999E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10">
-        <v>2.8000000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>7</v>
@@ -1261,35 +2325,30 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16" thickBot="1">
+    <row r="4" spans="1:28">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9184520647661766E-8</v>
-      </c>
       <c r="D4" s="10">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="E4" s="10"/>
       <c r="F4" s="10">
-        <v>4.6800000000000001E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11">
-        <v>3.7600000000000001E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="10">
-        <v>4.0399999999999998E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10">
-        <v>4.7E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>8</v>
@@ -1334,35 +2393,30 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16" thickBot="1">
+    <row r="5" spans="1:28">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>4.0919146324309809E-8</v>
-      </c>
       <c r="D5" s="10">
         <v>1.43E-2</v>
       </c>
-      <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <v>9.2200000000000004E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11">
-        <v>6.7299999999999999E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11">
-        <v>6.8699999999999997E-2</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="10">
-        <v>9.2100000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
@@ -1407,35 +2461,30 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16" thickBot="1">
+    <row r="6" spans="1:28">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="C6" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9563460292043156E-8</v>
-      </c>
       <c r="D6" s="10">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E6" s="10"/>
       <c r="F6" s="10">
-        <v>0.05</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10">
-        <v>4.3299999999999998E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11">
-        <v>4.2099999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="10">
-        <v>0.05</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>10</v>
@@ -1480,35 +2529,30 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16" thickBot="1">
+    <row r="7" spans="1:28">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="C7" s="9">
-        <f t="shared" si="0"/>
-        <v>5.9858369011626726E-8</v>
-      </c>
       <c r="D7" s="10">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <v>3.7499999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10">
-        <v>3.2899999999999999E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
-        <v>3.1199999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10">
-        <v>3.4299999999999997E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>11</v>
@@ -1553,35 +2597,30 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="16" thickBot="1">
+    <row r="8" spans="1:28">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C8" s="9">
-        <f t="shared" si="0"/>
-        <v>4.4083780342866015E-8</v>
-      </c>
       <c r="D8" s="10">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="E8" s="10"/>
       <c r="F8" s="10">
-        <v>9.5200000000000007E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10">
-        <v>6.88E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
-        <v>6.7199999999999996E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10">
-        <v>8.7400000000000005E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>12</v>
@@ -1626,35 +2665,30 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16" thickBot="1">
+    <row r="9" spans="1:28">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="10">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C9" s="9">
-        <f t="shared" si="0"/>
-        <v>5.7723032520744213E-8</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="D9" s="10">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>1.83E-2</v>
+      </c>
       <c r="F9" s="10">
-        <v>3.9199999999999999E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="11">
-        <v>3.1099999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11">
-        <v>3.1099999999999999E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="10">
-        <v>3.2800000000000003E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>13</v>
@@ -1704,30 +2738,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="13">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3969392903189642E-7</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D10" s="12">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="F10" s="12">
-        <v>0.13139999999999999</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12">
-        <v>8.8900000000000007E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12">
-        <v>8.7499999999999994E-2</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12">
-        <v>0.1094</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>14</v>
@@ -1778,35 +2807,30 @@
       </c>
       <c r="B11" s="13">
         <f>AVERAGE(B2:B10)</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C11" s="13">
-        <f>AVERAGE(C2:C10)</f>
-        <v>6.7189037923243607E-8</v>
+        <v>1.0377777777777777E-2</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" ref="D11:L11" si="1">AVERAGE(D2:D10)</f>
-        <v>1.8033333333333332E-2</v>
-      </c>
-      <c r="E11" s="13"/>
+        <f t="shared" ref="D11:L11" si="0">AVERAGE(D2:D10)</f>
+        <v>1.2866666666666665E-2</v>
+      </c>
       <c r="F11" s="13">
-        <f t="shared" si="1"/>
-        <v>5.5711111111111107E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9633333333333332E-2</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <f t="shared" si="1"/>
-        <v>4.7177777777777777E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6055555555555559E-2</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13">
-        <f t="shared" si="1"/>
-        <v>4.7011111111111115E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4878888888888889E-2</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13">
-        <f t="shared" si="1"/>
-        <v>5.7611111111111106E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9033333333333333E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>15</v>
@@ -1860,29 +2884,42 @@
       </c>
       <c r="C12" s="15">
         <f>SUM(B2:B10) / P12</f>
-        <v>7.4063540592745325E-8</v>
+        <v>5.5340277530899304E-8</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="15">
         <f>SUM(D2:D10) / S12</f>
-        <v>9.6619277778340017E-8</v>
+        <v>6.8937229616338707E-8</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="15">
+        <f>SUM(F2:F10) / U12</f>
+        <v>1.1442195865527325E-7</v>
+      </c>
       <c r="H12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15">
+        <f>SUM(H2:H10) / W12</f>
+        <v>9.3577900850166573E-8</v>
+      </c>
       <c r="J12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="15">
+        <f>SUM(J2:J10) / Y12</f>
+        <v>9.7767861380052028E-8</v>
+      </c>
       <c r="L12" s="14" t="s">
         <v>30</v>
+      </c>
+      <c r="M12" s="15">
+        <f>SUM(L2:L10) / AA12</f>
+        <v>1.250663479531246E-7</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>20</v>
@@ -1984,6 +3021,336 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="16" thickTop="1"/>
+    <row r="16" spans="1:28">
+      <c r="B16">
+        <f>B2/Q3</f>
+        <v>7.5134256294033609E-8</v>
+      </c>
+      <c r="D16">
+        <f>D2/S3</f>
+        <v>1.0592698428339163E-7</v>
+      </c>
+      <c r="F16">
+        <f>F2/U3</f>
+        <v>1.2340154319732042E-7</v>
+      </c>
+      <c r="H16">
+        <f>H2/W3</f>
+        <v>1.0731800089658078E-7</v>
+      </c>
+      <c r="J16">
+        <f>J2/Y3</f>
+        <v>1.2213181075675924E-7</v>
+      </c>
+      <c r="L16">
+        <f>L2/AA3</f>
+        <v>1.3587163946689465E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <f t="shared" ref="B17:L24" si="1">B3/Q4</f>
+        <v>8.8540846844010703E-8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.1018416496143554E-7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.5110103770859719E-7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.0888163011354799E-7</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.3137896390942582E-7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1.7774800999510549E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>4.9184520647661766E-8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>5.7054043951287648E-8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6.5907772102386289E-8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>5.0863606731189424E-8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>6.1702026674260759E-8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>7.1985697786637559E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>4.0919146324309809E-8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4.5714358784189869E-8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.216612796915149E-8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.1943943153620575E-8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4.7794161212470717E-9</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>5.5299029502032243E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>4.9563460292043156E-8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>6.1001181897899261E-8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>9.1262013240012074E-8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5.686085937116101E-8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>6.0484187705214212E-8</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>8.6405982436020295E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>5.9858369011626726E-8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>6.4931112148205272E-8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7.5677809949986844E-8</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>7.1292254370763588E-8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>8.1469862230815065E-8</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>8.6333734602804032E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>4.4083780342866015E-8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5.7485249567097272E-8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6.7775304042285725E-8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>5.6046382168161868E-8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>5.9949776341219029E-8</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>7.2107423291536178E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1.5770757099417615E-7</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.8863062413028913E-7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>9.7901453548639757E-8</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>5.7589090322729263E-8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>6.8195826939974552E-8</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1.0360519862034598E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>4.7087841246706654E-8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>6.2784210667934311E-8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.166694199244889E-7</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.8743940536464504E-7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2.1552737806379499E-7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>2.4679129811669467E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="C31">
+        <f t="shared" ref="C31:C38" si="2">B3/Q4</f>
+        <v>8.8540846844010703E-8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E39" si="3">D2/S3</f>
+        <v>1.0592698428339163E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>4.9184520647661766E-8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>1.1018416496143554E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>4.0919146324309809E-8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>5.7054043951287648E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>4.9563460292043156E-8</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>4.5714358784189869E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>5.9858369011626726E-8</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>6.1001181897899261E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>4.4083780342866015E-8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>6.4931112148205272E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1.5770757099417615E-7</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>5.7485249567097272E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>4.7087841246706654E-8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1.8863062413028913E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="16" thickBot="1">
+      <c r="C39" s="13">
+        <f>AVERAGE(C30:C38)</f>
+        <v>6.7118191962925131E-8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>6.2784210667934311E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="16" thickBot="1">
+      <c r="E40" s="13">
+        <f>AVERAGE(E31:E39)</f>
+        <v>8.3745770043525556E-8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AA1:AB1"/>
@@ -1994,8 +3361,479 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B16:L16">
+    <cfRule type="top10" dxfId="17" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:L17">
+    <cfRule type="top10" dxfId="16" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:L18">
+    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:L19">
+    <cfRule type="top10" dxfId="14" priority="15" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:L20">
+    <cfRule type="top10" dxfId="13" priority="14" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:L21">
+    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:L22">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:L23">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:L24">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:L2">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:L3">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:L4">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:L5">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>$B$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:L6">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>$B$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:L7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:L8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$B$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:L9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:L10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$B$10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1">
+      <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1">
+      <c r="A11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4.58E-2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31" thickBot="1">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>279400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>774700</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>736600</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/5.ExperimentalResult/speed.xlsx
+++ b/5.ExperimentalResult/speed.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2 (4)" sheetId="5" r:id="rId5"/>
+    <sheet name="Proposed" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="56">
   <si>
     <t>Image</t>
   </si>
@@ -912,12 +916,37 @@
       <t>+ 0.0155</t>
     </r>
   </si>
+  <si>
+    <t>OpenCV</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>predicted t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>squared error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.00E+00;\_x0000_"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -973,8 +1002,38 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,8 +1046,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1054,8 +1129,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1099,8 +1215,168 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1174,8 +1450,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="7" xfId="44" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="43" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="203">
+    <cellStyle name="Bad" xfId="43" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1197,6 +1508,85 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1218,9 +1608,188 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1614,11 +2183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125817176"/>
-        <c:axId val="2125820008"/>
+        <c:axId val="2087813496"/>
+        <c:axId val="2108202136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125817176"/>
+        <c:axId val="2087813496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +2197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125820008"/>
+        <c:crossAx val="2108202136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1636,7 +2205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125820008"/>
+        <c:axId val="2108202136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,9 +2216,2243 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125817176"/>
+        <c:crossAx val="2087813496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$J$21:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445975.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$K$21:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$L$21:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445972.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$M$21:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$N$19:$O$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$N$21:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73743.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86822.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91176.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139589.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142447.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264108.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283709.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417687.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$O$21:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$P$19:$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$P$21:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73613.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86822.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91174.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139589.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142453.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264067.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283712.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417735.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$Q$21:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$R$19:$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$R$21:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38819.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65503.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76251.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127306.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$S$21:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$T$19:$U$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$T$21:$T$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38819.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65503.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76251.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127306.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$U$21:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2115399640"/>
+        <c:axId val="-2117134936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2115399640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of contour pixels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117134936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2117134936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processing time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115399640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$B$20:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00915555555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$C$20:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0101288888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$D$20:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0123288888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$E$20:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00943555555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$F$20:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00940222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (3)'!$A$20:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Average </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (3)'!$G$20:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0115222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2105177800"/>
+        <c:axId val="-2115698568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2105177800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Images</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115698568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115698568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average contour tracing time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2105177800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.00668973121780831"/>
+          <c:y val="0.940695183372349"/>
+          <c:w val="0.974402492451601"/>
+          <c:h val="0.0448904022132369"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$J$21:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445975.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$K$21:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$L$21:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81188.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97015.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98566.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152487.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157374.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283551.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312812.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445972.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$M$21:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$N$19:$O$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$N$21:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73743.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86822.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91176.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139589.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142447.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264108.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283709.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417687.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$O$21:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$P$19:$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$P$21:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73613.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86822.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91174.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139589.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142453.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264067.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283712.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417735.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$Q$21:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$R$19:$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$R$21:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38819.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65503.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76251.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127306.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$S$21:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (4)'!$T$19:$U$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$T$21:$T$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38819.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65503.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76251.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127306.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (4)'!$U$21:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2101970248"/>
+        <c:axId val="-2102116488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2101970248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of contour pixels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102116488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2102116488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processing time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101970248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Proposed!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Proposed!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38819.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65503.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76251.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127306.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Proposed!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2101004408"/>
+        <c:axId val="-2102142936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2101004408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102142936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2102142936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101004408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1713,7 +4516,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>279400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>118252</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
@@ -1788,6 +4591,143 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2116,7 +5056,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2160,36 +5100,36 @@
       <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="19"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28" ht="16" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -2216,7 +5156,7 @@
       <c r="L2" s="8">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
@@ -3362,74 +6302,74 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="top10" dxfId="17" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="top10" dxfId="16" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="top10" dxfId="14" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="top10" dxfId="13" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L21">
-    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L22">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:L2">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:L3">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:L4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:L6">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
       <formula>$B$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:L7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>$B$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:L8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:L9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:L10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>$B$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3840,4 +6780,6277 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" ht="16" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <f>I2/B2</f>
+        <v>0.20942281879194632</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>6.2408000000000003E-3</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>I3/B3</f>
+        <v>0.22424074074074074</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I3" s="29">
+        <v>4.8436E-3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>81189</v>
+      </c>
+      <c r="L3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5">
+        <v>73743</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>73613</v>
+      </c>
+      <c r="S3" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="V3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="W3" s="1">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>I4/B4</f>
+        <v>0.19313624678663241</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I4" s="28">
+        <v>7.5129999999999997E-3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>50825</v>
+      </c>
+      <c r="L4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="U4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="V4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="W4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <f>I5/B5</f>
+        <v>0.21804551920341392</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1.53286E-2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>152489</v>
+      </c>
+      <c r="L5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="O5" s="1">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="S5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="T5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="U5" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="V5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="W5" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <f>I6/B6</f>
+        <v>0.20125471698113206</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="28">
+        <v>8.5331999999999995E-3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="L6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
+        <v>283709</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="R6" s="5">
+        <v>283712</v>
+      </c>
+      <c r="S6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="U6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="W6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <f>I7/B7</f>
+        <v>0.19954729729729728</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>5.9065999999999997E-3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>157377</v>
+      </c>
+      <c r="L7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
+        <v>142447</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>142453</v>
+      </c>
+      <c r="S7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="T7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="U7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="W7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <f>I8/B8</f>
+        <v>0.2452155963302752</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.6037099999999999E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>98579</v>
+      </c>
+      <c r="L8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="O8" s="1">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
+        <v>91176</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>91174</v>
+      </c>
+      <c r="S8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="U8" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="V8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="W8" s="1">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>I9/B9</f>
+        <v>0.19330769230769229</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>6.0311999999999996E-3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5">
+        <v>283717</v>
+      </c>
+      <c r="L9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="M9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="N9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="O9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="P9" s="5">
+        <v>264108</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>264067</v>
+      </c>
+      <c r="S9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="U9" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="W9" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>I10/B10</f>
+        <v>1.3917657004830919</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="F10" s="20">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.1094</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.1152382</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>97031</v>
+      </c>
+      <c r="L10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="S10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="U10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="V10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="W10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16" thickBot="1">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4.58E-2</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <v>453721</v>
+      </c>
+      <c r="L11" s="5">
+        <v>445975</v>
+      </c>
+      <c r="M11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>445972</v>
+      </c>
+      <c r="O11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>417687</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>417735</v>
+      </c>
+      <c r="S11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="U11" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="V11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="W11" s="1">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="31" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="23">
+        <f>SUM(B2:B10)/L12</f>
+        <v>2.4526846180955735E-7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1687740</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1679792</v>
+      </c>
+      <c r="M12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1679789</v>
+      </c>
+      <c r="O12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1544284</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1544168</v>
+      </c>
+      <c r="S12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="U12" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="W12" s="3">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="20">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickTop="1"/>
+    <row r="18" spans="1:7" ht="16" thickBot="1"/>
+    <row r="19" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="33">
+        <f>B2*0.2</f>
+        <v>5.96E-3</v>
+      </c>
+      <c r="C20" s="31">
+        <f>D2*0.2</f>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="D20" s="31">
+        <f t="shared" ref="D20:G20" si="0">E2*0.2</f>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="33">
+        <f t="shared" ref="B21:B28" si="1">B3*0.2</f>
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" ref="C21:G21" si="2">D3*0.2</f>
+        <v>5.62E-3</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickTop="1">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="31">
+        <f t="shared" si="1"/>
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" ref="C22:G22" si="3">D4*0.2</f>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="3"/>
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="3"/>
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="3"/>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="31">
+        <f t="shared" si="1"/>
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="C23" s="31">
+        <f t="shared" ref="C23:G23" si="4">D5*0.2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="4"/>
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" si="4"/>
+        <v>1.346E-2</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="4"/>
+        <v>1.374E-2</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="4"/>
+        <v>1.8420000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31">
+        <f t="shared" si="1"/>
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" ref="C24:G24" si="5">D6*0.2</f>
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="D24" s="31">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="5"/>
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="5"/>
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="33">
+        <f t="shared" si="1"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="C25" s="31">
+        <f t="shared" ref="C25:G25" si="6">D7*0.2</f>
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="D25" s="31">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="6"/>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" si="6"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="6"/>
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" si="1"/>
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" ref="C26:G26" si="7">D8*0.2</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="D26" s="31">
+        <f t="shared" si="7"/>
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="7"/>
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="7"/>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="7"/>
+        <v>1.7480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="31">
+        <f t="shared" si="1"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" ref="C27:G27" si="8">D9*0.2</f>
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="D27" s="31">
+        <f t="shared" si="8"/>
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="8"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="8"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="8"/>
+        <v>6.5600000000000007E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" si="1"/>
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="shared" ref="C28:G28" si="9">D10*0.2</f>
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="D28" s="31">
+        <f t="shared" si="9"/>
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="9"/>
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="9"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="9"/>
+        <v>2.188E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="33">
+        <f>AVERAGE(B20:B28)</f>
+        <v>9.1555555555555574E-3</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" ref="C29:G29" si="10">AVERAGE(C20:C28)</f>
+        <v>1.0128888888888889E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" si="10"/>
+        <v>1.2328888888888889E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="10"/>
+        <v>9.4355555555555564E-3</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="10"/>
+        <v>9.4022222222222233E-3</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="10"/>
+        <v>1.152222222222222E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31" thickBot="1">
+      <c r="A30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="32">
+        <f>SUM(B20:B28)/L12</f>
+        <v>4.9053692361911481E-8</v>
+      </c>
+      <c r="C30" s="32">
+        <f>SUM(C20:C28)/N12</f>
+        <v>5.4268720654796528E-8</v>
+      </c>
+      <c r="D30" s="32">
+        <f>SUM(D20:D28)/P12</f>
+        <v>7.1852068660945787E-8</v>
+      </c>
+      <c r="E30" s="32">
+        <f>SUM(E20:E28)/R12</f>
+        <v>5.4994016195129036E-8</v>
+      </c>
+      <c r="F30" s="32">
+        <f>SUM(F20:F28)/T12</f>
+        <v>6.1781169666044393E-8</v>
+      </c>
+      <c r="G30" s="32">
+        <f>SUM(G20:G28)/V12</f>
+        <v>7.5711501942434427E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="16" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C20:G20">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>$B$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:G21">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>$B$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:G22">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>$B$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" ht="16" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <f>I2/B2</f>
+        <v>0.20942281879194632</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>6.2408000000000003E-3</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>I3/B3</f>
+        <v>0.22424074074074074</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I3" s="29">
+        <v>4.8436E-3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>81189</v>
+      </c>
+      <c r="L3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5">
+        <v>73743</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>73613</v>
+      </c>
+      <c r="S3" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="V3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="W3" s="1">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>I4/B4</f>
+        <v>0.19313624678663241</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I4" s="28">
+        <v>7.5129999999999997E-3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>50825</v>
+      </c>
+      <c r="L4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="U4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="V4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="W4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <f>I5/B5</f>
+        <v>0.21804551920341392</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1.53286E-2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>152489</v>
+      </c>
+      <c r="L5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="O5" s="1">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="S5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="T5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="U5" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="V5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="W5" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <f>I6/B6</f>
+        <v>0.20125471698113206</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="28">
+        <v>8.5331999999999995E-3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="L6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
+        <v>283709</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="R6" s="5">
+        <v>283712</v>
+      </c>
+      <c r="S6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="U6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="W6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <f>I7/B7</f>
+        <v>0.19954729729729728</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>5.9065999999999997E-3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>157377</v>
+      </c>
+      <c r="L7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
+        <v>142447</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>142453</v>
+      </c>
+      <c r="S7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="T7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="U7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="W7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <f>I8/B8</f>
+        <v>0.2452155963302752</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.6037099999999999E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>98579</v>
+      </c>
+      <c r="L8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="O8" s="1">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
+        <v>91176</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>91174</v>
+      </c>
+      <c r="S8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="U8" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="V8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="W8" s="1">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>I9/B9</f>
+        <v>0.19330769230769229</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>6.0311999999999996E-3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5">
+        <v>283717</v>
+      </c>
+      <c r="L9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="M9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="N9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="O9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="P9" s="5">
+        <v>264108</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>264067</v>
+      </c>
+      <c r="S9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="U9" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="W9" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>I10/B10</f>
+        <v>1.3917657004830919</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="F10" s="20">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.1094</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.1152382</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>97031</v>
+      </c>
+      <c r="L10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="S10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="U10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="V10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="W10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16" thickBot="1">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4.58E-2</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <v>453721</v>
+      </c>
+      <c r="L11" s="5">
+        <v>445975</v>
+      </c>
+      <c r="M11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>445972</v>
+      </c>
+      <c r="O11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>417687</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>417735</v>
+      </c>
+      <c r="S11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="U11" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="V11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="W11" s="1">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="31" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="23">
+        <f>SUM(B2:B10)/L12</f>
+        <v>2.4526846180955735E-7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1687740</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1679792</v>
+      </c>
+      <c r="M12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1679789</v>
+      </c>
+      <c r="O12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1544284</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1544168</v>
+      </c>
+      <c r="S12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="U12" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="W12" s="3">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="20">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickTop="1"/>
+    <row r="18" spans="1:21" ht="16" thickBot="1"/>
+    <row r="19" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="33">
+        <f>B2*0.2</f>
+        <v>5.96E-3</v>
+      </c>
+      <c r="C20" s="31">
+        <f>D2*0.2</f>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="D20" s="31">
+        <f t="shared" ref="D20:G20" si="0">E2*0.2</f>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="33">
+        <f t="shared" ref="B21:B28" si="1">B3*0.2</f>
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" ref="C21:G28" si="2">D3*0.2</f>
+        <v>5.62E-3</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5">
+        <v>50824</v>
+      </c>
+      <c r="K21" s="38">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>50824</v>
+      </c>
+      <c r="M21" s="36">
+        <v>5.62E-3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>45003</v>
+      </c>
+      <c r="O21">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>45003</v>
+      </c>
+      <c r="Q21">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <v>38819</v>
+      </c>
+      <c r="S21">
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="T21" s="5">
+        <v>38819</v>
+      </c>
+      <c r="U21">
+        <v>5.6000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16" thickTop="1">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="31">
+        <f t="shared" si="1"/>
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" si="2"/>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="2"/>
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="2"/>
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="2"/>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="2"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="5">
+        <v>81188</v>
+      </c>
+      <c r="K22" s="22">
+        <v>5.96E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>81188</v>
+      </c>
+      <c r="M22" s="36">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>73743</v>
+      </c>
+      <c r="O22">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>73613</v>
+      </c>
+      <c r="Q22">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>65503</v>
+      </c>
+      <c r="S22">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="T22" s="5">
+        <v>65503</v>
+      </c>
+      <c r="U22">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="31">
+        <f t="shared" si="1"/>
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="C23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" si="2"/>
+        <v>1.346E-2</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="2"/>
+        <v>1.374E-2</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8420000000000002E-2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5">
+        <v>97015</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>97015</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="N23" s="5">
+        <v>86822</v>
+      </c>
+      <c r="O23">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>86822</v>
+      </c>
+      <c r="Q23">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>76251</v>
+      </c>
+      <c r="S23">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>76251</v>
+      </c>
+      <c r="U23">
+        <v>6.5600000000000007E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31">
+        <f t="shared" si="1"/>
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" si="2"/>
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="D24" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="2"/>
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="2"/>
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <v>98566</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>98566</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="N24" s="5">
+        <v>91176</v>
+      </c>
+      <c r="O24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P24" s="5">
+        <v>91174</v>
+      </c>
+      <c r="Q24">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="R24" s="5">
+        <v>82239</v>
+      </c>
+      <c r="S24">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>82239</v>
+      </c>
+      <c r="U24">
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="33">
+        <f t="shared" si="1"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="C25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="D25" s="31">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="5">
+        <v>152487</v>
+      </c>
+      <c r="K25" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>152487</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>139589</v>
+      </c>
+      <c r="O25">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="P25" s="5">
+        <v>139589</v>
+      </c>
+      <c r="Q25">
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="R25" s="5">
+        <v>126414</v>
+      </c>
+      <c r="S25">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>126414</v>
+      </c>
+      <c r="U25">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" si="1"/>
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="D26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7480000000000002E-2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>157374</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>157374</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="N26" s="5">
+        <v>142447</v>
+      </c>
+      <c r="O26">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>142453</v>
+      </c>
+      <c r="Q26">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="R26" s="5">
+        <v>127306</v>
+      </c>
+      <c r="S26">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="T26" s="5">
+        <v>127306</v>
+      </c>
+      <c r="U26">
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="31">
+        <f t="shared" si="1"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="D27" s="31">
+        <f t="shared" si="2"/>
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="2"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="2"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="2"/>
+        <v>6.5600000000000007E-3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5">
+        <v>283551</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <v>283551</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>264108</v>
+      </c>
+      <c r="O27">
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="P27" s="5">
+        <v>264067</v>
+      </c>
+      <c r="Q27">
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>238533</v>
+      </c>
+      <c r="S27">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="T27" s="5">
+        <v>238533</v>
+      </c>
+      <c r="U27">
+        <v>1.7480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" si="1"/>
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="D28" s="31">
+        <f t="shared" si="2"/>
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="2"/>
+        <v>2.188E-2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="5">
+        <v>312812</v>
+      </c>
+      <c r="K28" s="22">
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>312812</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>283709</v>
+      </c>
+      <c r="O28">
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>283712</v>
+      </c>
+      <c r="Q28">
+        <v>1.346E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <v>253169</v>
+      </c>
+      <c r="S28">
+        <v>1.374E-2</v>
+      </c>
+      <c r="T28" s="5">
+        <v>253169</v>
+      </c>
+      <c r="U28">
+        <v>1.8420000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="33">
+        <f>AVERAGE(B20:B28)</f>
+        <v>9.1555555555555574E-3</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" ref="C29:G29" si="3">AVERAGE(C20:C28)</f>
+        <v>1.0128888888888889E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.2328888888888889E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4355555555555564E-3</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4022222222222233E-3</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.152222222222222E-2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5">
+        <v>445975</v>
+      </c>
+      <c r="K29" s="23">
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>445972</v>
+      </c>
+      <c r="M29" s="20">
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>417687</v>
+      </c>
+      <c r="O29">
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>417735</v>
+      </c>
+      <c r="Q29">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="R29" s="5">
+        <v>361439</v>
+      </c>
+      <c r="S29">
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>361439</v>
+      </c>
+      <c r="U29">
+        <v>2.188E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="31" thickBot="1">
+      <c r="A30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="32">
+        <f>SUM(B20:B28)/L12</f>
+        <v>4.9053692361911481E-8</v>
+      </c>
+      <c r="C30" s="32">
+        <f>SUM(C20:C28)/N12</f>
+        <v>5.4268720654796528E-8</v>
+      </c>
+      <c r="D30" s="32">
+        <f>SUM(D20:D28)/P12</f>
+        <v>7.1852068660945787E-8</v>
+      </c>
+      <c r="E30" s="32">
+        <f>SUM(E20:E28)/R12</f>
+        <v>5.4994016195129036E-8</v>
+      </c>
+      <c r="F30" s="32">
+        <f>SUM(F20:F28)/T12</f>
+        <v>6.1781169666044393E-8</v>
+      </c>
+      <c r="G30" s="32">
+        <f>SUM(G20:G28)/V12</f>
+        <v>7.5711501942434427E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="16" thickTop="1"/>
+  </sheetData>
+  <sortState ref="T21:U29">
+    <sortCondition ref="T21"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C20:G20">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>$B$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:G21">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>$B$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:G22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$B$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" ht="16" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <f>I2/B2</f>
+        <v>0.20942281879194632</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>6.2408000000000003E-3</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>I3/B3</f>
+        <v>0.22424074074074074</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I3" s="29">
+        <v>4.8436E-3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>81189</v>
+      </c>
+      <c r="L3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <v>81188</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5">
+        <v>73743</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>73613</v>
+      </c>
+      <c r="S3" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="V3" s="5">
+        <v>65503</v>
+      </c>
+      <c r="W3" s="1">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>I4/B4</f>
+        <v>0.19313624678663241</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I4" s="28">
+        <v>7.5129999999999997E-3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>50825</v>
+      </c>
+      <c r="L4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="5">
+        <v>50824</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>45003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="U4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="V4" s="5">
+        <v>38819</v>
+      </c>
+      <c r="W4" s="1">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <f>I5/B5</f>
+        <v>0.21804551920341392</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1.53286E-2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>152489</v>
+      </c>
+      <c r="L5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>152487</v>
+      </c>
+      <c r="O5" s="1">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>139589</v>
+      </c>
+      <c r="S5" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="T5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="U5" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="V5" s="5">
+        <v>126414</v>
+      </c>
+      <c r="W5" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <f>I6/B6</f>
+        <v>0.20125471698113206</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="28">
+        <v>8.5331999999999995E-3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="L6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
+        <v>312812</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
+        <v>283709</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="R6" s="5">
+        <v>283712</v>
+      </c>
+      <c r="S6" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="T6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="U6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V6" s="5">
+        <v>253169</v>
+      </c>
+      <c r="W6" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <f>I7/B7</f>
+        <v>0.19954729729729728</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>5.9065999999999997E-3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5">
+        <v>157377</v>
+      </c>
+      <c r="L7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
+        <v>157374</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
+        <v>142447</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>142453</v>
+      </c>
+      <c r="S7" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="T7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="U7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V7" s="5">
+        <v>127306</v>
+      </c>
+      <c r="W7" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <f>I8/B8</f>
+        <v>0.2452155963302752</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.6037099999999999E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>98579</v>
+      </c>
+      <c r="L8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
+        <v>98566</v>
+      </c>
+      <c r="O8" s="1">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
+        <v>91176</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>91174</v>
+      </c>
+      <c r="S8" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="U8" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="V8" s="5">
+        <v>82239</v>
+      </c>
+      <c r="W8" s="1">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>I9/B9</f>
+        <v>0.19330769230769229</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>6.0311999999999996E-3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="5">
+        <v>283717</v>
+      </c>
+      <c r="L9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="M9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="N9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="O9" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="P9" s="5">
+        <v>264108</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>264067</v>
+      </c>
+      <c r="S9" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="U9" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="W9" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>I10/B10</f>
+        <v>1.3917657004830919</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="F10" s="20">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.1094</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.1152382</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>97031</v>
+      </c>
+      <c r="L10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5">
+        <v>97015</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>86822</v>
+      </c>
+      <c r="S10" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="U10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="V10" s="5">
+        <v>76251</v>
+      </c>
+      <c r="W10" s="1">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16" thickBot="1">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4.58E-2</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <v>453721</v>
+      </c>
+      <c r="L11" s="5">
+        <v>445975</v>
+      </c>
+      <c r="M11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>445972</v>
+      </c>
+      <c r="O11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>417687</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>417735</v>
+      </c>
+      <c r="S11" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="U11" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="V11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="W11" s="1">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="31" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="23">
+        <f>SUM(B2:B10)/L12</f>
+        <v>2.4526846180955735E-7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1687740</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1679792</v>
+      </c>
+      <c r="M12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1679789</v>
+      </c>
+      <c r="O12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1544284</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1544168</v>
+      </c>
+      <c r="S12" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="U12" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1369673</v>
+      </c>
+      <c r="W12" s="3">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="20">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickTop="1"/>
+    <row r="18" spans="1:21" ht="16" thickBot="1"/>
+    <row r="19" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="33">
+        <f>B2*0.2</f>
+        <v>5.96E-3</v>
+      </c>
+      <c r="C20" s="31">
+        <f>D2*0.2</f>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="D20" s="31">
+        <f t="shared" ref="D20:G20" si="0">E2*0.2</f>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="33">
+        <f t="shared" ref="B21:B28" si="1">B3*0.2</f>
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" ref="C21:G28" si="2">D3*0.2</f>
+        <v>5.62E-3</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" si="2"/>
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5">
+        <v>50824</v>
+      </c>
+      <c r="K21" s="38">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>50824</v>
+      </c>
+      <c r="M21" s="36">
+        <v>5.62E-3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>45003</v>
+      </c>
+      <c r="O21">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>45003</v>
+      </c>
+      <c r="Q21">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <v>38819</v>
+      </c>
+      <c r="S21">
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="T21" s="5">
+        <v>38819</v>
+      </c>
+      <c r="U21">
+        <v>5.6000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16" thickTop="1">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="31">
+        <f t="shared" si="1"/>
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" si="2"/>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="2"/>
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="2"/>
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="2"/>
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="2"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="5">
+        <v>81188</v>
+      </c>
+      <c r="K22" s="22">
+        <v>5.96E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>81188</v>
+      </c>
+      <c r="M22" s="36">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>73743</v>
+      </c>
+      <c r="O22">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>73613</v>
+      </c>
+      <c r="Q22">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>65503</v>
+      </c>
+      <c r="S22">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="T22" s="5">
+        <v>65503</v>
+      </c>
+      <c r="U22">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="31">
+        <f t="shared" si="1"/>
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="C23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" si="2"/>
+        <v>1.346E-2</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="2"/>
+        <v>1.374E-2</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8420000000000002E-2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5">
+        <v>97015</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>97015</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="N23" s="5">
+        <v>86822</v>
+      </c>
+      <c r="O23">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>86822</v>
+      </c>
+      <c r="Q23">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>76251</v>
+      </c>
+      <c r="S23">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>76251</v>
+      </c>
+      <c r="U23">
+        <v>6.5600000000000007E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31">
+        <f t="shared" si="1"/>
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" si="2"/>
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="D24" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="2"/>
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="2"/>
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <v>98566</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>98566</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="N24" s="5">
+        <v>91176</v>
+      </c>
+      <c r="O24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P24" s="5">
+        <v>91174</v>
+      </c>
+      <c r="Q24">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="R24" s="5">
+        <v>82239</v>
+      </c>
+      <c r="S24">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>82239</v>
+      </c>
+      <c r="U24">
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="33">
+        <f t="shared" si="1"/>
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="C25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="D25" s="31">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="5">
+        <v>152487</v>
+      </c>
+      <c r="K25" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>152487</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>139589</v>
+      </c>
+      <c r="O25">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="P25" s="5">
+        <v>139589</v>
+      </c>
+      <c r="Q25">
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="R25" s="5">
+        <v>126414</v>
+      </c>
+      <c r="S25">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>126414</v>
+      </c>
+      <c r="U25">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" si="1"/>
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="D26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7480000000000002E-2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>157374</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>157374</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="N26" s="5">
+        <v>142447</v>
+      </c>
+      <c r="O26">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>142453</v>
+      </c>
+      <c r="Q26">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="R26" s="5">
+        <v>127306</v>
+      </c>
+      <c r="S26">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="T26" s="5">
+        <v>127306</v>
+      </c>
+      <c r="U26">
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="31">
+        <f t="shared" si="1"/>
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" si="2"/>
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="D27" s="31">
+        <f t="shared" si="2"/>
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="2"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="2"/>
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="2"/>
+        <v>6.5600000000000007E-3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5">
+        <v>283551</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <v>283551</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>264108</v>
+      </c>
+      <c r="O27">
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="P27" s="5">
+        <v>264067</v>
+      </c>
+      <c r="Q27">
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>238533</v>
+      </c>
+      <c r="S27">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="T27" s="5">
+        <v>238533</v>
+      </c>
+      <c r="U27">
+        <v>1.7480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" si="1"/>
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="D28" s="31">
+        <f t="shared" si="2"/>
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="2"/>
+        <v>2.188E-2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="5">
+        <v>312812</v>
+      </c>
+      <c r="K28" s="22">
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>312812</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>283709</v>
+      </c>
+      <c r="O28">
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>283712</v>
+      </c>
+      <c r="Q28">
+        <v>1.346E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <v>253169</v>
+      </c>
+      <c r="S28">
+        <v>1.374E-2</v>
+      </c>
+      <c r="T28" s="5">
+        <v>253169</v>
+      </c>
+      <c r="U28">
+        <v>1.8420000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="17" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="33">
+        <f>AVERAGE(B20:B28)</f>
+        <v>9.1555555555555574E-3</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" ref="C29:G29" si="3">AVERAGE(C20:C28)</f>
+        <v>1.0128888888888889E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.2328888888888889E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4355555555555564E-3</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4022222222222233E-3</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.152222222222222E-2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5">
+        <v>445975</v>
+      </c>
+      <c r="K29" s="23">
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>445972</v>
+      </c>
+      <c r="M29" s="20">
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>417687</v>
+      </c>
+      <c r="O29">
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>417735</v>
+      </c>
+      <c r="Q29">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="R29" s="5">
+        <v>361439</v>
+      </c>
+      <c r="S29">
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>361439</v>
+      </c>
+      <c r="U29">
+        <v>2.188E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="31" thickBot="1">
+      <c r="A30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="32">
+        <f>SUM(B20:B28)/L12</f>
+        <v>4.9053692361911481E-8</v>
+      </c>
+      <c r="C30" s="32">
+        <f>SUM(C20:C28)/N12</f>
+        <v>5.4268720654796528E-8</v>
+      </c>
+      <c r="D30" s="32">
+        <f>SUM(D20:D28)/P12</f>
+        <v>7.1852068660945787E-8</v>
+      </c>
+      <c r="E30" s="32">
+        <f>SUM(E20:E28)/R12</f>
+        <v>5.4994016195129036E-8</v>
+      </c>
+      <c r="F30" s="32">
+        <f>SUM(F20:F28)/T12</f>
+        <v>6.1781169666044393E-8</v>
+      </c>
+      <c r="G30" s="32">
+        <f>SUM(G20:G28)/V12</f>
+        <v>7.5711501942434427E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="39">
+        <v>5.4497663644000074E-6</v>
+      </c>
+      <c r="C31">
+        <v>5.7653313717254584E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.2783114200646145E-3</v>
+      </c>
+      <c r="E31">
+        <v>4.9879634551820966E-4</v>
+      </c>
+      <c r="F31">
+        <v>5.0153794558704143E-4</v>
+      </c>
+      <c r="G31">
+        <v>9.3319425981907764E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>0.98116999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.98543999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.98838000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.98685</v>
+      </c>
+      <c r="F32">
+        <v>0.99460999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.97614999999999996</v>
+      </c>
+    </row>
+    <row r="33" ht="16" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C20:G20">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$B$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:G21">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$B$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:G22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$B$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="5">
+        <v>38819</v>
+      </c>
+      <c r="B3">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="C3" s="31">
+        <f>B3*B$13+B$14</f>
+        <v>3.1000003359999998E-3</v>
+      </c>
+      <c r="D3" s="31">
+        <f>B3-C3</f>
+        <v>2.499999664000001E-3</v>
+      </c>
+      <c r="E3">
+        <f>D3*D3</f>
+        <v>6.2499983200001179E-6</v>
+      </c>
+      <c r="H3">
+        <v>50824</v>
+      </c>
+      <c r="I3">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>4.6247199999999997E-3</v>
+      </c>
+      <c r="K3">
+        <v>-3.0471999999999964E-4</v>
+      </c>
+      <c r="L3">
+        <v>9.2854278399999777E-8</v>
+      </c>
+      <c r="M3" s="5">
+        <v>50824</v>
+      </c>
+      <c r="N3" s="36">
+        <v>5.62E-3</v>
+      </c>
+      <c r="O3" s="31">
+        <f>N3*N$13+N$14</f>
+        <v>3.5000002247999999E-3</v>
+      </c>
+      <c r="P3" s="31">
+        <f>N3-O3</f>
+        <v>2.1199997752000001E-3</v>
+      </c>
+      <c r="Q3">
+        <f>P3*P3</f>
+        <v>4.4943990468480509E-6</v>
+      </c>
+      <c r="R3" s="5">
+        <v>45003</v>
+      </c>
+      <c r="S3">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="T3" s="31">
+        <f>S3*S$13+S$14</f>
+        <v>2.5000003552000001E-3</v>
+      </c>
+      <c r="U3" s="31">
+        <f>S3-T3</f>
+        <v>3.4199996448000007E-3</v>
+      </c>
+      <c r="V3">
+        <f>U3*U3</f>
+        <v>1.1696397570432131E-5</v>
+      </c>
+      <c r="W3" s="5">
+        <v>45003</v>
+      </c>
+      <c r="X3">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="Y3" s="31">
+        <f>X3*X$13+X$14</f>
+        <v>3.3000001871999998E-3</v>
+      </c>
+      <c r="Z3" s="31">
+        <f>X3-Y3</f>
+        <v>1.3799998128000003E-3</v>
+      </c>
+      <c r="AA3">
+        <f>Z3*Z3</f>
+        <v>1.9043994833280358E-6</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>38819</v>
+      </c>
+      <c r="AC3">
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="AD3" s="31">
+        <f>AC3*AC$13+AC$14</f>
+        <v>3.2000001888000001E-3</v>
+      </c>
+      <c r="AE3" s="31">
+        <f>AC3-AD3</f>
+        <v>1.5199998112000001E-3</v>
+      </c>
+      <c r="AF3">
+        <f>AE3*AE3</f>
+        <v>2.3103994260480363E-6</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>38819</v>
+      </c>
+      <c r="AH3">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="AI3" s="31">
+        <f>AH3*AH$13+AH$14</f>
+        <v>3.1000003359999998E-3</v>
+      </c>
+      <c r="AJ3" s="31">
+        <f>AH3-AI3</f>
+        <v>2.499999664000001E-3</v>
+      </c>
+      <c r="AK3">
+        <f>AJ3*AJ3</f>
+        <v>6.2499983200001179E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="5">
+        <v>65503</v>
+      </c>
+      <c r="B4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C4" s="31">
+        <f t="shared" ref="C4:C11" si="0">B4*B$13+B$14</f>
+        <v>3.1000004499999998E-3</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" ref="D4:D11" si="1">B4-C4</f>
+        <v>4.3999995500000003E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="2">D4*D4</f>
+        <v>1.9359996040000206E-5</v>
+      </c>
+      <c r="H4">
+        <v>81188</v>
+      </c>
+      <c r="I4">
+        <v>5.96E-3</v>
+      </c>
+      <c r="J4">
+        <v>5.5356399999999997E-3</v>
+      </c>
+      <c r="K4">
+        <v>4.2436000000000036E-4</v>
+      </c>
+      <c r="L4">
+        <v>1.800814096000003E-7</v>
+      </c>
+      <c r="M4" s="5">
+        <v>81188</v>
+      </c>
+      <c r="N4" s="36">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="O4" s="31">
+        <f t="shared" ref="O4:O11" si="3">N4*N$13+N$14</f>
+        <v>3.5000002488000002E-3</v>
+      </c>
+      <c r="P4" s="31">
+        <f t="shared" ref="P4:P11" si="4">N4-O4</f>
+        <v>2.7199997511999996E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q11" si="5">P4*P4</f>
+        <v>7.3983986465280595E-6</v>
+      </c>
+      <c r="R4" s="5">
+        <v>73743</v>
+      </c>
+      <c r="S4">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="T4" s="31">
+        <f t="shared" ref="T4:T11" si="6">S4*S$13+S$14</f>
+        <v>2.5000003948E-3</v>
+      </c>
+      <c r="U4" s="31">
+        <f t="shared" ref="U4:U11" si="7">S4-T4</f>
+        <v>4.0799996052000003E-3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V11" si="8">U4*U4</f>
+        <v>1.6646396778432158E-5</v>
+      </c>
+      <c r="W4" s="5">
+        <v>73613</v>
+      </c>
+      <c r="X4">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="Y4" s="31">
+        <f t="shared" ref="Y4:Y11" si="9">X4*X$13+X$14</f>
+        <v>3.3000002504000002E-3</v>
+      </c>
+      <c r="Z4" s="31">
+        <f t="shared" ref="Z4:Z11" si="10">X4-Y4</f>
+        <v>2.9599997496000006E-3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA11" si="11">Z4*Z4</f>
+        <v>8.7615985176320667E-6</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>65503</v>
+      </c>
+      <c r="AC4">
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="AD4" s="31">
+        <f t="shared" ref="AD4:AD11" si="12">AC4*AC$13+AC$14</f>
+        <v>3.2000002504000004E-3</v>
+      </c>
+      <c r="AE4" s="31">
+        <f t="shared" ref="AE4:AE11" si="13">AC4-AD4</f>
+        <v>3.0599997496000004E-3</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF11" si="14">AE4*AE4</f>
+        <v>9.3635984675520656E-6</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>65503</v>
+      </c>
+      <c r="AH4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AI4" s="31">
+        <f t="shared" ref="AI4:AI11" si="15">AH4*AH$13+AH$14</f>
+        <v>3.1000004499999998E-3</v>
+      </c>
+      <c r="AJ4" s="31">
+        <f t="shared" ref="AJ4:AJ11" si="16">AH4-AI4</f>
+        <v>4.3999995500000003E-3</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK11" si="17">AJ4*AJ4</f>
+        <v>1.9359996040000206E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="5">
+        <v>76251</v>
+      </c>
+      <c r="B5">
+        <v>6.5600000000000007E-3</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000003935999997E-3</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="1"/>
+        <v>3.459999606400001E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1.1971597276288162E-5</v>
+      </c>
+      <c r="H5">
+        <v>97015</v>
+      </c>
+      <c r="I5">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="J5">
+        <v>6.0104499999999996E-3</v>
+      </c>
+      <c r="K5">
+        <v>2.2955000000000024E-4</v>
+      </c>
+      <c r="L5">
+        <v>5.2693202500000113E-8</v>
+      </c>
+      <c r="M5" s="5">
+        <v>97015</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6.8800000000000007E-3</v>
+      </c>
+      <c r="O5" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000002752E-3</v>
+      </c>
+      <c r="P5" s="31">
+        <f t="shared" si="4"/>
+        <v>3.3799997248000007E-3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>1.1424398139648081E-5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>86822</v>
+      </c>
+      <c r="S5">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000004704000003E-3</v>
+      </c>
+      <c r="U5" s="31">
+        <f t="shared" si="7"/>
+        <v>5.3399995295999991E-3</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="8"/>
+        <v>2.8515594976128211E-5</v>
+      </c>
+      <c r="W5" s="5">
+        <v>86822</v>
+      </c>
+      <c r="X5">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000002488000001E-3</v>
+      </c>
+      <c r="Z5" s="31">
+        <f t="shared" si="10"/>
+        <v>2.9199997511999997E-3</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="11"/>
+        <v>8.5263985470080597E-6</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>76251</v>
+      </c>
+      <c r="AC5">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="AD5" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000002488000003E-3</v>
+      </c>
+      <c r="AE5" s="31">
+        <f t="shared" si="13"/>
+        <v>3.0199997511999995E-3</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="14"/>
+        <v>9.1203984972480586E-6</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>76251</v>
+      </c>
+      <c r="AH5">
+        <v>6.5600000000000007E-3</v>
+      </c>
+      <c r="AI5" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000003935999997E-3</v>
+      </c>
+      <c r="AJ5" s="31">
+        <f t="shared" si="16"/>
+        <v>3.459999606400001E-3</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="17"/>
+        <v>1.1971597276288162E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="5">
+        <v>82239</v>
+      </c>
+      <c r="B6">
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000004116000001E-3</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="1"/>
+        <v>3.7599995883999997E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.4137596904768167E-5</v>
+      </c>
+      <c r="H6">
+        <v>98566</v>
+      </c>
+      <c r="I6">
+        <v>5.9200000000000008E-3</v>
+      </c>
+      <c r="J6">
+        <v>6.05698E-3</v>
+      </c>
+      <c r="K6">
+        <v>-1.3697999999999922E-4</v>
+      </c>
+      <c r="L6">
+        <v>1.8763520399999786E-8</v>
+      </c>
+      <c r="M6" s="5">
+        <v>98566</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="O6" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000002735999999E-3</v>
+      </c>
+      <c r="P6" s="31">
+        <f t="shared" si="4"/>
+        <v>3.3399997264000007E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>1.1155598172352079E-5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>91176</v>
+      </c>
+      <c r="S6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="6"/>
+        <v>2.50000045E-3</v>
+      </c>
+      <c r="U6" s="31">
+        <f t="shared" si="7"/>
+        <v>4.9999995500000002E-3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>2.4999995500000206E-5</v>
+      </c>
+      <c r="W6" s="5">
+        <v>91174</v>
+      </c>
+      <c r="X6">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="Y6" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000002632E-3</v>
+      </c>
+      <c r="Z6" s="31">
+        <f t="shared" si="10"/>
+        <v>3.2799997367999999E-3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="11"/>
+        <v>1.0758398273408069E-5</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>82239</v>
+      </c>
+      <c r="AC6">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="AD6" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000002496000001E-3</v>
+      </c>
+      <c r="AE6" s="31">
+        <f t="shared" si="13"/>
+        <v>3.0399997503999998E-3</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="14"/>
+        <v>9.2415984824320613E-6</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>82239</v>
+      </c>
+      <c r="AH6">
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="AI6" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000004116000001E-3</v>
+      </c>
+      <c r="AJ6" s="31">
+        <f t="shared" si="16"/>
+        <v>3.7599995883999997E-3</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="17"/>
+        <v>1.4137596904768167E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="5">
+        <v>126414</v>
+      </c>
+      <c r="B7">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000005639999998E-3</v>
+      </c>
+      <c r="D7" s="31">
+        <f t="shared" si="1"/>
+        <v>6.2999994360000006E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>3.9689992893600324E-5</v>
+      </c>
+      <c r="H7">
+        <v>152487</v>
+      </c>
+      <c r="I7">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="J7">
+        <v>7.6746100000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.0538999999999948E-4</v>
+      </c>
+      <c r="L7">
+        <v>1.1107052099999889E-8</v>
+      </c>
+      <c r="M7" s="5">
+        <v>152487</v>
+      </c>
+      <c r="N7" s="1">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="O7" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000003232000003E-3</v>
+      </c>
+      <c r="P7" s="31">
+        <f t="shared" si="4"/>
+        <v>4.5799996768000001E-3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2.0976397039488107E-5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>139589</v>
+      </c>
+      <c r="S7">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000005616000001E-3</v>
+      </c>
+      <c r="U7" s="31">
+        <f t="shared" si="7"/>
+        <v>6.8599994384000006E-3</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>4.7059592294848324E-5</v>
+      </c>
+      <c r="W7" s="5">
+        <v>139589</v>
+      </c>
+      <c r="X7">
+        <v>7.5200000000000006E-3</v>
+      </c>
+      <c r="Y7" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000003007999999E-3</v>
+      </c>
+      <c r="Z7" s="31">
+        <f t="shared" si="10"/>
+        <v>4.2199996992000003E-3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="11"/>
+        <v>1.7808397461248094E-5</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>126414</v>
+      </c>
+      <c r="AC7">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="AD7" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000003232000003E-3</v>
+      </c>
+      <c r="AE7" s="31">
+        <f t="shared" si="13"/>
+        <v>4.8799996768E-3</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="14"/>
+        <v>2.3814396845568105E-5</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>126414</v>
+      </c>
+      <c r="AH7">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="AI7" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000005639999998E-3</v>
+      </c>
+      <c r="AJ7" s="31">
+        <f t="shared" si="16"/>
+        <v>6.2999994360000006E-3</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="17"/>
+        <v>3.9689992893600324E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="5">
+        <v>127306</v>
+      </c>
+      <c r="B8">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000006000000001E-3</v>
+      </c>
+      <c r="D8" s="31">
+        <f t="shared" si="1"/>
+        <v>6.8999994000000023E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>4.7609991720000389E-5</v>
+      </c>
+      <c r="H8">
+        <v>157374</v>
+      </c>
+      <c r="I8">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="J8">
+        <v>7.8212200000000003E-3</v>
+      </c>
+      <c r="K8">
+        <v>6.5877999999999944E-4</v>
+      </c>
+      <c r="L8">
+        <v>4.3399108839999925E-7</v>
+      </c>
+      <c r="M8" s="5">
+        <v>157374</v>
+      </c>
+      <c r="N8" s="1">
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="O8" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000003632000001E-3</v>
+      </c>
+      <c r="P8" s="31">
+        <f t="shared" si="4"/>
+        <v>5.5799996368000012E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>3.1136395946688144E-5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>142447</v>
+      </c>
+      <c r="S8">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000006000000003E-3</v>
+      </c>
+      <c r="U8" s="31">
+        <f t="shared" si="7"/>
+        <v>7.4999994000000021E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>5.6249991000000394E-5</v>
+      </c>
+      <c r="W8" s="5">
+        <v>142453</v>
+      </c>
+      <c r="X8">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="Y8" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000003463999998E-3</v>
+      </c>
+      <c r="Z8" s="31">
+        <f t="shared" si="10"/>
+        <v>5.3599996535999995E-3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>2.8729596286592113E-5</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>127306</v>
+      </c>
+      <c r="AC8">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="AD8" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000003368000004E-3</v>
+      </c>
+      <c r="AE8" s="31">
+        <f t="shared" si="13"/>
+        <v>5.2199996631999996E-3</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="14"/>
+        <v>2.724839648380811E-5</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>127306</v>
+      </c>
+      <c r="AH8">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="AI8" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000006000000001E-3</v>
+      </c>
+      <c r="AJ8" s="31">
+        <f t="shared" si="16"/>
+        <v>6.8999994000000023E-3</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="17"/>
+        <v>4.7609991720000389E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="B9">
+        <v>1.7480000000000002E-2</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000010487999999E-3</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="1"/>
+        <v>1.4379998951200002E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2.0678436983651317E-4</v>
+      </c>
+      <c r="H9">
+        <v>283551</v>
+      </c>
+      <c r="I9">
+        <v>1.3080000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.160653E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.473470000000001E-3</v>
+      </c>
+      <c r="L9">
+        <v>2.1711138409000031E-6</v>
+      </c>
+      <c r="M9" s="5">
+        <v>283551</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="O9" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000005879999999E-3</v>
+      </c>
+      <c r="P9" s="31">
+        <f t="shared" si="4"/>
+        <v>1.1199999411999999E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>1.2543998682880032E-4</v>
+      </c>
+      <c r="R9" s="5">
+        <v>264108</v>
+      </c>
+      <c r="S9">
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000011424000002E-3</v>
+      </c>
+      <c r="U9" s="31">
+        <f t="shared" si="7"/>
+        <v>1.6539998857600002E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="8"/>
+        <v>2.7357156220940936E-4</v>
+      </c>
+      <c r="W9" s="5">
+        <v>264067</v>
+      </c>
+      <c r="X9">
+        <v>1.3760000000000001E-2</v>
+      </c>
+      <c r="Y9" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000005503999999E-3</v>
+      </c>
+      <c r="Z9" s="31">
+        <f t="shared" si="10"/>
+        <v>1.0459999449600001E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="11"/>
+        <v>1.0941158848563232E-4</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="AC9">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="AD9" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000005376000003E-3</v>
+      </c>
+      <c r="AE9" s="31">
+        <f t="shared" si="13"/>
+        <v>1.02399994624E-2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="14"/>
+        <v>1.0485758898995229E-4</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>238533</v>
+      </c>
+      <c r="AH9">
+        <v>1.7480000000000002E-2</v>
+      </c>
+      <c r="AI9" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000010487999999E-3</v>
+      </c>
+      <c r="AJ9" s="31">
+        <f t="shared" si="16"/>
+        <v>1.4379998951200002E-2</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="17"/>
+        <v>2.0678436983651317E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="5">
+        <v>253169</v>
+      </c>
+      <c r="B10">
+        <v>1.8420000000000002E-2</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000011052E-3</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="1"/>
+        <v>1.5319998894800003E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2.347023661366733E-4</v>
+      </c>
+      <c r="H10">
+        <v>312812</v>
+      </c>
+      <c r="I10">
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.248436E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.5756400000000014E-3</v>
+      </c>
+      <c r="L10">
+        <v>2.4826414096000046E-6</v>
+      </c>
+      <c r="M10" s="5">
+        <v>312812</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O10" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000006000000003E-3</v>
+      </c>
+      <c r="P10" s="31">
+        <f t="shared" si="4"/>
+        <v>1.1499999399999999E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1.3224998620000033E-4</v>
+      </c>
+      <c r="R10" s="5">
+        <v>283709</v>
+      </c>
+      <c r="S10">
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000011063999999E-3</v>
+      </c>
+      <c r="U10" s="31">
+        <f t="shared" si="7"/>
+        <v>1.5939998893600003E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>2.5408356472796936E-4</v>
+      </c>
+      <c r="W10" s="5">
+        <v>283712</v>
+      </c>
+      <c r="X10">
+        <v>1.346E-2</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000005383999999E-3</v>
+      </c>
+      <c r="Z10" s="31">
+        <f t="shared" si="10"/>
+        <v>1.0159999461600001E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="11"/>
+        <v>1.0322558905971231E-4</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>253169</v>
+      </c>
+      <c r="AC10">
+        <v>1.374E-2</v>
+      </c>
+      <c r="AD10" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000005496000002E-3</v>
+      </c>
+      <c r="AE10" s="31">
+        <f t="shared" si="13"/>
+        <v>1.05399994504E-2</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="14"/>
+        <v>1.110915884144323E-4</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>253169</v>
+      </c>
+      <c r="AH10">
+        <v>1.8420000000000002E-2</v>
+      </c>
+      <c r="AI10" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000011052E-3</v>
+      </c>
+      <c r="AJ10" s="31">
+        <f t="shared" si="16"/>
+        <v>1.5319998894800003E-2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="17"/>
+        <v>2.347023661366733E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="16" thickBot="1">
+      <c r="A11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="B11">
+        <v>2.188E-2</v>
+      </c>
+      <c r="C11" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1000013127999997E-3</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="1"/>
+        <v>1.8779998687200001E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>3.5268835069123374E-4</v>
+      </c>
+      <c r="H11">
+        <v>445975</v>
+      </c>
+      <c r="I11">
+        <v>1.6560000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.6479249999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>8.0750000000004429E-5</v>
+      </c>
+      <c r="L11">
+        <v>6.5205625000007151E-9</v>
+      </c>
+      <c r="M11" s="5">
+        <v>445972</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.8740000000000003E-2</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="3"/>
+        <v>3.5000007496000002E-3</v>
+      </c>
+      <c r="P11" s="31">
+        <f t="shared" si="4"/>
+        <v>1.5239999250400003E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>2.3225757715219266E-4</v>
+      </c>
+      <c r="R11" s="5">
+        <v>417687</v>
+      </c>
+      <c r="S11">
+        <v>2.6279999999999998E-2</v>
+      </c>
+      <c r="T11" s="31">
+        <f t="shared" si="6"/>
+        <v>2.5000015768000001E-3</v>
+      </c>
+      <c r="U11" s="31">
+        <f t="shared" si="7"/>
+        <v>2.3779998423199999E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>5.6548832500739443E-4</v>
+      </c>
+      <c r="W11" s="5">
+        <v>417735</v>
+      </c>
+      <c r="X11">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="Y11" s="31">
+        <f t="shared" si="9"/>
+        <v>3.3000007111999999E-3</v>
+      </c>
+      <c r="Z11" s="31">
+        <f t="shared" si="10"/>
+        <v>1.4479999288800002E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="11"/>
+        <v>2.0967037940364854E-4</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="AC11">
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="AD11" s="31">
+        <f t="shared" si="12"/>
+        <v>3.2000007E-3</v>
+      </c>
+      <c r="AE11" s="31">
+        <f t="shared" si="13"/>
+        <v>1.4299999299999998E-2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="14"/>
+        <v>2.0448997998000041E-4</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>361439</v>
+      </c>
+      <c r="AH11">
+        <v>2.188E-2</v>
+      </c>
+      <c r="AI11" s="31">
+        <f t="shared" si="15"/>
+        <v>3.1000013127999997E-3</v>
+      </c>
+      <c r="AJ11" s="31">
+        <f t="shared" si="16"/>
+        <v>1.8779998687200001E-2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="17"/>
+        <v>3.5268835069123374E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="E12">
+        <f>SUM(E3:E11)</f>
+        <v>9.3319425981907764E-4</v>
+      </c>
+      <c r="L12">
+        <v>5.4497663644000074E-6</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Q3:Q11)</f>
+        <v>5.7653313717254584E-4</v>
+      </c>
+      <c r="V12">
+        <f>SUM(V3:V11)</f>
+        <v>1.2783114200646145E-3</v>
+      </c>
+      <c r="AA12">
+        <f>SUM(AA3:AA11)</f>
+        <v>4.9879634551820966E-4</v>
+      </c>
+      <c r="AF12">
+        <f>SUM(AF3:AF11)</f>
+        <v>5.0153794558704143E-4</v>
+      </c>
+      <c r="AK12">
+        <f>SUM(AK3:AK11)</f>
+        <v>9.3319425981907764E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="32">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="32">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="32">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" s="32">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" s="32">
+        <v>5.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="38">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="38">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" s="38">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH14" s="38">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
+        <v>50824</v>
+      </c>
+      <c r="B21" s="38">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
+        <v>81188</v>
+      </c>
+      <c r="B22" s="22">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
+        <v>97015</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
+        <v>98566</v>
+      </c>
+      <c r="B24" s="22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
+        <v>152487</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>157374</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
+        <v>283551</v>
+      </c>
+      <c r="B27" s="22">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5">
+        <v>312812</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" thickBot="1">
+      <c r="A29" s="5">
+        <v>445975</v>
+      </c>
+      <c r="B29" s="23">
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A21:B29">
+    <sortCondition ref="A21"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>